--- a/telebot-format/users.xlsx
+++ b/telebot-format/users.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/telebot-format/users.xlsx
+++ b/telebot-format/users.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>

--- a/telebot-format/users.xlsx
+++ b/telebot-format/users.xlsx
@@ -460,7 +460,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">

--- a/telebot-format/users.xlsx
+++ b/telebot-format/users.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/telebot-format/users.xlsx
+++ b/telebot-format/users.xlsx
@@ -460,7 +460,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">

--- a/telebot-format/users.xlsx
+++ b/telebot-format/users.xlsx
@@ -460,7 +460,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">

--- a/telebot-format/users.xlsx
+++ b/telebot-format/users.xlsx
@@ -460,7 +460,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
